--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.012420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.012420.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4209,12 +4209,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6565,12 +6565,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7073,12 +7073,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7115,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8471,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8597,12 +8597,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8681,12 +8681,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8891,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9105,12 +9105,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9987,12 +9987,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10877,12 +10877,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10923,12 +10923,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11217,12 +11217,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11889,12 +11889,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12015,12 +12015,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12099,12 +12099,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12309,12 +12309,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12519,12 +12519,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12603,12 +12603,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12687,12 +12687,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14203,12 +14203,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16063,12 +16063,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16105,12 +16105,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
